--- a/medicine/Psychotrope/Ronny_Coutteure/Ronny_Coutteure.xlsx
+++ b/medicine/Psychotrope/Ronny_Coutteure/Ronny_Coutteure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronny Coutteure est un acteur, réalisateur et metteur en scène belge, né le 2 juillet 1951 à Wervicq en Belgique et mort le 21 juin 2000 à Fretin en France.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronny Louis Edmond Coutteure est né du côté belge de la ville frontière de Wervicq le 2 juillet 1951. Sa famille s'installe à Tourcoing où il fait ses études.
 Il a travaillé pour le cinéma, la radio, la télévision, l'opéra et le théâtre et est l'auteur et l'interprète de plusieurs one-man-show.
-Ronny Coutteure réussit son bac littéraire en 1970, puis suit des cours de théâtre à Paris avant de revenir dans le Nord pour débuter au théâtre. En 1974, il joue dans Candide d'après Voltaire, mise en scène par Cyril Robichez, au Théâtre populaire des Flandres à Lille. Sa voix grave et son accent picard le rendent vite populaire. En 1975, au théâtre La Fontaine à Lille, il a un rôle de clown dans Capitaine Clown de René Pillot[1]. Coutteure s'est vite avéré un fervent défenseur de la culture et du patrimoine du Nord de la France. Il écrit ensuite Arlequin au pays noir, joué au Théâtre de La Salamandre à Tourcoing avant de mettre en scène Martin Eden de Jack London. Ronny Coutteure obtient ses premiers rôles au cinéma et à la télévision.
+Ronny Coutteure réussit son bac littéraire en 1970, puis suit des cours de théâtre à Paris avant de revenir dans le Nord pour débuter au théâtre. En 1974, il joue dans Candide d'après Voltaire, mise en scène par Cyril Robichez, au Théâtre populaire des Flandres à Lille. Sa voix grave et son accent picard le rendent vite populaire. En 1975, au théâtre La Fontaine à Lille, il a un rôle de clown dans Capitaine Clown de René Pillot. Coutteure s'est vite avéré un fervent défenseur de la culture et du patrimoine du Nord de la France. Il écrit ensuite Arlequin au pays noir, joué au Théâtre de La Salamandre à Tourcoing avant de mettre en scène Martin Eden de Jack London. Ronny Coutteure obtient ses premiers rôles au cinéma et à la télévision.
 Il a joué le rôle du serveur dans la série Palace où il reprend un peu le rôle qu'il avait dans Merci Bernard.
 Internationalement, il est surtout célèbre pour son rôle régulier de Rémy Baudouin, copain belge d’Indiana Jones, incarné par Sean Patrick Flanery dans Les Aventures du jeune Indiana Jones, série produite par George Lucas.
 Il était remarquable aussi dans la série télévisée Maria Vandamme, de Jacques Ertaud, en 1989.
 Au théâtre, Ronny Coutteure a mis en scène et interprété plusieurs créations. Il a écrit et mis en scène un opéra, Les Contes d'un buveur de bière. Simultanément, il donne des cours de biérologie dans son estaminet-théâtre de Fretin « La Ferme aux hirondelles ».
-Il fut marié en premières noces à Colette Talpaert[2] puis en secondes noces à la cantatrice Dianne van den Eijnden.
+Il fut marié en premières noces à Colette Talpaert puis en secondes noces à la cantatrice Dianne van den Eijnden.
 Ronny Coutteure se suicide par pendaison le 21 juin 2000. Les raisons de son suicide ne sont pas nettement établies. Il est inhumé au cimetière de Fretin.
 Le théâtre de La Ferme des hirondelles est renommé théâtre Ronny Coutteure.
 </t>
@@ -553,7 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1982 : Hiver 60 de Thierry Michel
 1983 : Un dimanche de flic de Michel Vianey
 1983 : Zig Zag Story (Et la tendresse ? Bordel ! no 2) de Patrick Schulmann
@@ -563,9 +583,79 @@
 1993 : La cavale des fous de Marco Pico
 1995 : Le Roi de Paris de Dominique Maillet
 1997 : Arlette de Claude Zidi
-Réalisateur
-1987 : Carnaval.
-Télévision
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réalisateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1987 : Carnaval.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1974 : La Colonie de Bernard Claeys
 1976 : Deux jours à Wandignies de Alain Dhouailly
 1976 : Au bout du compte de Gérard Chouchan
@@ -615,37 +705,74 @@
 1999 : Les Enfants du printemps de Marco Pico (série : 3 épisodes)
 2000 : Marion et son tuteur de Jean Larragia
 2000 : Thérèse et Léon de Claude Goretta
-Courts-métrages
-1982 : Les ailes du papillon de Michel Rodde (52 min)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Courts-métrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1982 : Les ailes du papillon de Michel Rodde (52 min)
 1989 : Les bonnes manières de l'atelier Alfred (7 min)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1975 : Arlequin au pays noir - Metteur en scène et interprète
@@ -667,66 +794,70 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Animateur d'émissions TV et radio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1998 : Écouteuses, écouteurs, écoutez, chronique radio quotidienne sur Fréquence Nord
 1998/2000 : Ronny coup de cœur, émission TV France 3 Nord-Pas-de-Calais-Picardie, réalisée par Patrick Villechaize</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>One man show</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronny Coutteure est l'auteur et interprète des spectacles :
 1972 : Masques de Jeux
-1978 : Belges Histoires [1]
+1978 : Belges Histoires 
 1981 : L'Échappé Belges
 1984 : Mince Alors
 1993 : Éloge de la Bière
@@ -735,31 +866,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1981 : De Belges histoires
 1992 : D'amoureuses histoires aux éditions Miroirs
@@ -768,62 +901,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>La biérologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Passionné par la bière, Ronny Coutteure fonde la biérologie et anime des Universités de Biérologie dans son estaminet-théâtre de Fretin, La Ferme aux hirondelles [3].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionné par la bière, Ronny Coutteure fonde la biérologie et anime des Universités de Biérologie dans son estaminet-théâtre de Fretin, La Ferme aux hirondelles .
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1980 : Eul' bibine à Fredo - 45 tours
@@ -836,31 +973,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronny_Coutteure</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1979 : prix Kammans, prix des Télévisions européennes pour Minitrip, avec Maurice Failevic
 1980 : prix du meilleur interprète au festival du film d'humour de Chamrousse pour No Man's Land
